--- a/lowe/edd/data/CAL$SHWS.xlsx
+++ b/lowe/edd/data/CAL$SHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1361,14 +1361,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH53"/>
+  <dimension ref="A1:JI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1376,15 +1376,15 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="114" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="115" max="268" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="115" max="269" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1394,14 +1394,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1409,12 +1409,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2229,11 +2229,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3036,8 +3039,11 @@
       <c r="JH9" s="11">
         <v>18982800</v>
       </c>
+      <c r="JI9" s="11">
+        <v>19013300</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3838,10 +3844,13 @@
         <v>17493600</v>
       </c>
       <c r="JH10" s="11">
-        <v>17551100</v>
+        <v>17551300</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>17594600</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4642,10 +4651,13 @@
         <v>1433800</v>
       </c>
       <c r="JH11" s="11">
-        <v>1431600</v>
+        <v>1431500</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>1418800</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5448,8 +5460,11 @@
       <c r="JH12" s="12">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -6252,8 +6267,11 @@
       <c r="JH13" s="11">
         <v>419700</v>
       </c>
+      <c r="JI13" s="11">
+        <v>420400</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -7054,10 +7072,13 @@
         <v>16527800</v>
       </c>
       <c r="JH14" s="11">
-        <v>16632100</v>
+        <v>16622500</v>
+      </c>
+      <c r="JI14" s="11">
+        <v>16669900</v>
       </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -7858,10 +7879,13 @@
         <v>2152300</v>
       </c>
       <c r="JH15" s="11">
-        <v>2155900</v>
+        <v>2158100</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>2165100</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -8662,10 +8686,13 @@
         <v>18800</v>
       </c>
       <c r="JH16" s="11">
-        <v>18900</v>
+        <v>18800</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>18700</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>20</v>
       </c>
@@ -9466,10 +9493,13 @@
         <v>877800</v>
       </c>
       <c r="JH17" s="11">
-        <v>878400</v>
+        <v>879300</v>
+      </c>
+      <c r="JI17" s="11">
+        <v>880700</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>34</v>
       </c>
@@ -10270,10 +10300,13 @@
         <v>1255700</v>
       </c>
       <c r="JH18" s="11">
-        <v>1258600</v>
+        <v>1260000</v>
+      </c>
+      <c r="JI18" s="11">
+        <v>1265700</v>
       </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>35</v>
       </c>
@@ -11074,10 +11107,13 @@
         <v>813400</v>
       </c>
       <c r="JH19" s="11">
-        <v>816600</v>
+        <v>816000</v>
+      </c>
+      <c r="JI19" s="11">
+        <v>820100</v>
       </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>83</v>
       </c>
@@ -11878,10 +11914,13 @@
         <v>442300</v>
       </c>
       <c r="JH20" s="11">
-        <v>442000</v>
+        <v>444000</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>445600</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>115</v>
       </c>
@@ -12682,10 +12721,13 @@
         <v>14375500</v>
       </c>
       <c r="JH21" s="11">
-        <v>14476200</v>
+        <v>14464400</v>
+      </c>
+      <c r="JI21" s="11">
+        <v>14504800</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>117</v>
       </c>
@@ -13486,10 +13528,13 @@
         <v>2991300</v>
       </c>
       <c r="JH22" s="11">
-        <v>2990500</v>
+        <v>2994100</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>2996000</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>118</v>
       </c>
@@ -14290,10 +14335,13 @@
         <v>647500</v>
       </c>
       <c r="JH23" s="11">
-        <v>646600</v>
+        <v>645900</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>643300</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>138</v>
       </c>
@@ -15094,10 +15142,13 @@
         <v>1576700</v>
       </c>
       <c r="JH24" s="11">
-        <v>1575900</v>
+        <v>1577500</v>
+      </c>
+      <c r="JI24" s="11">
+        <v>1578400</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>177</v>
       </c>
@@ -15898,10 +15949,13 @@
         <v>767100</v>
       </c>
       <c r="JH25" s="11">
-        <v>768000</v>
+        <v>770700</v>
+      </c>
+      <c r="JI25" s="11">
+        <v>774300</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>205</v>
       </c>
@@ -16702,10 +16756,13 @@
         <v>545000</v>
       </c>
       <c r="JH26" s="11">
-        <v>547200</v>
+        <v>550000</v>
+      </c>
+      <c r="JI26" s="11">
+        <v>555000</v>
       </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>226</v>
       </c>
@@ -17506,10 +17563,13 @@
         <v>806600</v>
       </c>
       <c r="JH27" s="11">
-        <v>809800</v>
+        <v>809000</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>810300</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>227</v>
       </c>
@@ -18310,10 +18370,13 @@
         <v>529600</v>
       </c>
       <c r="JH28" s="11">
-        <v>531200</v>
+        <v>529900</v>
+      </c>
+      <c r="JI28" s="11">
+        <v>528800</v>
       </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>240</v>
       </c>
@@ -19114,10 +19177,13 @@
         <v>277000</v>
       </c>
       <c r="JH29" s="11">
-        <v>278600</v>
+        <v>279100</v>
+      </c>
+      <c r="JI29" s="11">
+        <v>281500</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>251</v>
       </c>
@@ -19918,10 +19984,13 @@
         <v>2680600</v>
       </c>
       <c r="JH30" s="11">
-        <v>2694600</v>
+        <v>2696800</v>
+      </c>
+      <c r="JI30" s="11">
+        <v>2703700</v>
       </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>252</v>
       </c>
@@ -20722,10 +20791,13 @@
         <v>1351500</v>
       </c>
       <c r="JH31" s="11">
-        <v>1360000</v>
+        <v>1361600</v>
+      </c>
+      <c r="JI31" s="11">
+        <v>1368900</v>
       </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>262</v>
       </c>
@@ -21526,10 +21598,13 @@
         <v>242700</v>
       </c>
       <c r="JH32" s="11">
-        <v>242800</v>
+        <v>243000</v>
+      </c>
+      <c r="JI32" s="11">
+        <v>242600</v>
       </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>263</v>
       </c>
@@ -22330,10 +22405,13 @@
         <v>1086400</v>
       </c>
       <c r="JH33" s="11">
-        <v>1091800</v>
+        <v>1092200</v>
+      </c>
+      <c r="JI33" s="11">
+        <v>1092200</v>
       </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>274</v>
       </c>
@@ -23134,10 +23212,13 @@
         <v>2793300</v>
       </c>
       <c r="JH34" s="11">
-        <v>2787000</v>
+        <v>2792200</v>
+      </c>
+      <c r="JI34" s="11">
+        <v>2794800</v>
       </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>275</v>
       </c>
@@ -23938,10 +24019,13 @@
         <v>342900</v>
       </c>
       <c r="JH35" s="11">
-        <v>344100</v>
+        <v>347000</v>
+      </c>
+      <c r="JI35" s="11">
+        <v>348800</v>
       </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>281</v>
       </c>
@@ -24742,10 +24826,13 @@
         <v>2450400</v>
       </c>
       <c r="JH36" s="11">
-        <v>2442900</v>
+        <v>2445200</v>
+      </c>
+      <c r="JI36" s="11">
+        <v>2446000</v>
       </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>304</v>
       </c>
@@ -25546,10 +25633,13 @@
         <v>1627400</v>
       </c>
       <c r="JH37" s="11">
-        <v>1660500</v>
+        <v>1663000</v>
+      </c>
+      <c r="JI37" s="11">
+        <v>1686300</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>305</v>
       </c>
@@ -26350,10 +26440,13 @@
         <v>236500</v>
       </c>
       <c r="JH38" s="11">
-        <v>245900</v>
+        <v>247200</v>
+      </c>
+      <c r="JI38" s="11">
+        <v>258000</v>
       </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>316</v>
       </c>
@@ -27154,10 +27247,13 @@
         <v>1390900</v>
       </c>
       <c r="JH39" s="11">
-        <v>1414600</v>
+        <v>1415800</v>
+      </c>
+      <c r="JI39" s="11">
+        <v>1428300</v>
       </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>324</v>
       </c>
@@ -27958,10 +28054,13 @@
         <v>491900</v>
       </c>
       <c r="JH40" s="11">
-        <v>500300</v>
+        <v>499200</v>
+      </c>
+      <c r="JI40" s="11">
+        <v>495500</v>
       </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>342</v>
       </c>
@@ -28762,10 +28861,13 @@
         <v>2439400</v>
       </c>
       <c r="JH41" s="11">
-        <v>2486300</v>
+        <v>2460100</v>
+      </c>
+      <c r="JI41" s="11">
+        <v>2463200</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>343</v>
       </c>
@@ -29566,10 +29668,13 @@
         <v>253100</v>
       </c>
       <c r="JH42" s="11">
-        <v>252200</v>
+        <v>251300</v>
+      </c>
+      <c r="JI42" s="11">
+        <v>251300</v>
       </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>347</v>
       </c>
@@ -30370,10 +30475,13 @@
         <v>512400</v>
       </c>
       <c r="JH43" s="11">
-        <v>506700</v>
+        <v>508500</v>
+      </c>
+      <c r="JI43" s="11">
+        <v>510600</v>
       </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>350</v>
       </c>
@@ -31174,10 +31282,13 @@
         <v>1673900</v>
       </c>
       <c r="JH44" s="11">
-        <v>1727400</v>
+        <v>1700300</v>
+      </c>
+      <c r="JI44" s="11">
+        <v>1701300</v>
       </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>106</v>
       </c>
@@ -31190,7 +31301,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>15</v>
       </c>
@@ -31203,7 +31314,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>107</v>
       </c>

--- a/lowe/edd/data/CAL$SHWS.xlsx
+++ b/lowe/edd/data/CAL$SHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1361,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI53"/>
+  <dimension ref="A1:JJ53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1376,15 +1376,15 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="114" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="115" max="269" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="115" max="270" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1394,14 +1394,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1409,12 +1409,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2232,11 +2232,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3040,10 +3043,13 @@
         <v>18982800</v>
       </c>
       <c r="JI9" s="11">
-        <v>19013300</v>
+        <v>19030800</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>19022400</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3847,10 +3853,13 @@
         <v>17551300</v>
       </c>
       <c r="JI10" s="11">
-        <v>17594600</v>
+        <v>17606400</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>17639100</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4654,10 +4663,13 @@
         <v>1431500</v>
       </c>
       <c r="JI11" s="11">
-        <v>1418800</v>
+        <v>1424400</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>1383200</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5463,8 +5475,11 @@
       <c r="JI12" s="12">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>7.2999999999999995E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -6268,10 +6283,13 @@
         <v>419700</v>
       </c>
       <c r="JI13" s="11">
-        <v>420400</v>
+        <v>419600</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>416500</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -7075,10 +7093,13 @@
         <v>16622500</v>
       </c>
       <c r="JI14" s="11">
-        <v>16669900</v>
+        <v>16677800</v>
+      </c>
+      <c r="JJ14" s="11">
+        <v>16774600</v>
       </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -7882,10 +7903,13 @@
         <v>2158100</v>
       </c>
       <c r="JI15" s="11">
-        <v>2165100</v>
+        <v>2170600</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>2181200</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -8689,10 +8713,13 @@
         <v>18800</v>
       </c>
       <c r="JI16" s="11">
-        <v>18700</v>
+        <v>18800</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>19100</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>20</v>
       </c>
@@ -9496,10 +9523,13 @@
         <v>879300</v>
       </c>
       <c r="JI17" s="11">
-        <v>880700</v>
+        <v>884500</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>892000</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>34</v>
       </c>
@@ -10303,10 +10333,13 @@
         <v>1260000</v>
       </c>
       <c r="JI18" s="11">
-        <v>1265700</v>
+        <v>1267300</v>
+      </c>
+      <c r="JJ18" s="11">
+        <v>1270100</v>
       </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>35</v>
       </c>
@@ -11110,10 +11143,13 @@
         <v>816000</v>
       </c>
       <c r="JI19" s="11">
-        <v>820100</v>
+        <v>820200</v>
+      </c>
+      <c r="JJ19" s="11">
+        <v>821300</v>
       </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>83</v>
       </c>
@@ -11917,10 +11953,13 @@
         <v>444000</v>
       </c>
       <c r="JI20" s="11">
-        <v>445600</v>
+        <v>447100</v>
+      </c>
+      <c r="JJ20" s="11">
+        <v>448800</v>
       </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>115</v>
       </c>
@@ -12724,10 +12763,13 @@
         <v>14464400</v>
       </c>
       <c r="JI21" s="11">
-        <v>14504800</v>
+        <v>14507200</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>14593400</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>117</v>
       </c>
@@ -13531,10 +13573,13 @@
         <v>2994100</v>
       </c>
       <c r="JI22" s="11">
-        <v>2996000</v>
+        <v>3001200</v>
+      </c>
+      <c r="JJ22" s="11">
+        <v>3016100</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>118</v>
       </c>
@@ -14338,10 +14383,13 @@
         <v>645900</v>
       </c>
       <c r="JI23" s="11">
-        <v>643300</v>
+        <v>644800</v>
+      </c>
+      <c r="JJ23" s="11">
+        <v>647400</v>
       </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>138</v>
       </c>
@@ -15145,10 +15193,13 @@
         <v>1577500</v>
       </c>
       <c r="JI24" s="11">
-        <v>1578400</v>
+        <v>1581600</v>
+      </c>
+      <c r="JJ24" s="11">
+        <v>1590200</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>177</v>
       </c>
@@ -15952,10 +16003,13 @@
         <v>770700</v>
       </c>
       <c r="JI25" s="11">
-        <v>774300</v>
+        <v>774800</v>
+      </c>
+      <c r="JJ25" s="11">
+        <v>778500</v>
       </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>205</v>
       </c>
@@ -16759,10 +16813,13 @@
         <v>550000</v>
       </c>
       <c r="JI26" s="11">
-        <v>555000</v>
+        <v>556900</v>
+      </c>
+      <c r="JJ26" s="11">
+        <v>559600</v>
       </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>226</v>
       </c>
@@ -17566,10 +17623,13 @@
         <v>809000</v>
       </c>
       <c r="JI27" s="11">
-        <v>810300</v>
+        <v>809900</v>
+      </c>
+      <c r="JJ27" s="11">
+        <v>814300</v>
       </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>227</v>
       </c>
@@ -18373,10 +18433,13 @@
         <v>529900</v>
       </c>
       <c r="JI28" s="11">
-        <v>528800</v>
+        <v>528600</v>
+      </c>
+      <c r="JJ28" s="11">
+        <v>531900</v>
       </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>240</v>
       </c>
@@ -19180,10 +19243,13 @@
         <v>279100</v>
       </c>
       <c r="JI29" s="11">
-        <v>281500</v>
+        <v>281300</v>
+      </c>
+      <c r="JJ29" s="11">
+        <v>282400</v>
       </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>251</v>
       </c>
@@ -19987,10 +20053,13 @@
         <v>2696800</v>
       </c>
       <c r="JI30" s="11">
-        <v>2703700</v>
+        <v>2703900</v>
+      </c>
+      <c r="JJ30" s="11">
+        <v>2743400</v>
       </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>252</v>
       </c>
@@ -20794,10 +20863,13 @@
         <v>1361600</v>
       </c>
       <c r="JI31" s="11">
-        <v>1368900</v>
+        <v>1371200</v>
+      </c>
+      <c r="JJ31" s="11">
+        <v>1381100</v>
       </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>262</v>
       </c>
@@ -21603,8 +21675,11 @@
       <c r="JI32" s="11">
         <v>242600</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>242400</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>263</v>
       </c>
@@ -22408,10 +22483,13 @@
         <v>1092200</v>
       </c>
       <c r="JI33" s="11">
-        <v>1092200</v>
+        <v>1090100</v>
+      </c>
+      <c r="JJ33" s="11">
+        <v>1119900</v>
       </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>274</v>
       </c>
@@ -23215,10 +23293,13 @@
         <v>2792200</v>
       </c>
       <c r="JI34" s="11">
-        <v>2794800</v>
+        <v>2796100</v>
+      </c>
+      <c r="JJ34" s="11">
+        <v>2801500</v>
       </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>275</v>
       </c>
@@ -24022,10 +24103,13 @@
         <v>347000</v>
       </c>
       <c r="JI35" s="11">
-        <v>348800</v>
+        <v>350900</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>353300</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>281</v>
       </c>
@@ -24829,10 +24913,13 @@
         <v>2445200</v>
       </c>
       <c r="JI36" s="11">
-        <v>2446000</v>
+        <v>2445200</v>
+      </c>
+      <c r="JJ36" s="11">
+        <v>2448200</v>
       </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>304</v>
       </c>
@@ -25636,10 +25723,13 @@
         <v>1663000</v>
       </c>
       <c r="JI37" s="11">
-        <v>1686300</v>
+        <v>1689400</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>1710900</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>305</v>
       </c>
@@ -26443,10 +26533,13 @@
         <v>247200</v>
       </c>
       <c r="JI38" s="11">
-        <v>258000</v>
+        <v>259300</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>269200</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>316</v>
       </c>
@@ -27250,10 +27343,13 @@
         <v>1415800</v>
       </c>
       <c r="JI39" s="11">
-        <v>1428300</v>
+        <v>1430100</v>
+      </c>
+      <c r="JJ39" s="11">
+        <v>1441700</v>
       </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>324</v>
       </c>
@@ -28057,10 +28153,13 @@
         <v>499200</v>
       </c>
       <c r="JI40" s="11">
-        <v>495500</v>
+        <v>498300</v>
+      </c>
+      <c r="JJ40" s="11">
+        <v>500100</v>
       </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>342</v>
       </c>
@@ -28864,10 +28963,13 @@
         <v>2460100</v>
       </c>
       <c r="JI41" s="11">
-        <v>2463200</v>
+        <v>2451500</v>
+      </c>
+      <c r="JJ41" s="11">
+        <v>2447500</v>
       </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>343</v>
       </c>
@@ -29671,10 +29773,13 @@
         <v>251300</v>
       </c>
       <c r="JI42" s="11">
-        <v>251300</v>
+        <v>251200</v>
+      </c>
+      <c r="JJ42" s="11">
+        <v>250600</v>
       </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>347</v>
       </c>
@@ -30478,10 +30583,13 @@
         <v>508500</v>
       </c>
       <c r="JI43" s="11">
-        <v>510600</v>
+        <v>510900</v>
+      </c>
+      <c r="JJ43" s="11">
+        <v>511600</v>
       </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>350</v>
       </c>
@@ -31285,10 +31393,13 @@
         <v>1700300</v>
       </c>
       <c r="JI44" s="11">
-        <v>1701300</v>
+        <v>1689400</v>
+      </c>
+      <c r="JJ44" s="11">
+        <v>1685300</v>
       </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>106</v>
       </c>
@@ -31301,7 +31412,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>15</v>
       </c>
@@ -31314,7 +31425,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>107</v>
       </c>

--- a/lowe/edd/data/CAL$SHWS.xlsx
+++ b/lowe/edd/data/CAL$SHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,13 +287,13 @@
     <t>70-710000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Arts, Entertainment &amp; Recreation</t>
+    <t xml:space="preserve">        Arts, Entertainment &amp; Recreation</t>
   </si>
   <si>
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>811000-813000</t>
@@ -1361,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ53"/>
+  <dimension ref="A1:JL53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1376,15 +1376,15 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="114" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="115" max="270" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="115" max="272" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1394,14 +1394,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1409,12 +1409,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2235,11 +2235,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3046,10 +3052,16 @@
         <v>19030800</v>
       </c>
       <c r="JJ9" s="11">
-        <v>19022400</v>
+        <v>19022800</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>19044700</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>19074900</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3856,10 +3868,16 @@
         <v>17606400</v>
       </c>
       <c r="JJ10" s="11">
-        <v>17639100</v>
+        <v>17639500</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>17719900</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>17836800</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4668,8 +4686,14 @@
       <c r="JJ11" s="11">
         <v>1383200</v>
       </c>
+      <c r="JK11" s="11">
+        <v>1324800</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>1238000</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5478,8 +5502,14 @@
       <c r="JJ12" s="12">
         <v>7.2999999999999995E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>6.5000000000000002E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -6288,8 +6318,14 @@
       <c r="JJ13" s="11">
         <v>416500</v>
       </c>
+      <c r="JK13" s="11">
+        <v>433500</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>429300</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -7096,10 +7132,16 @@
         <v>16677800</v>
       </c>
       <c r="JJ14" s="11">
-        <v>16774600</v>
+        <v>16789400</v>
+      </c>
+      <c r="JK14" s="11">
+        <v>16841600</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>16892300</v>
       </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -7906,10 +7948,16 @@
         <v>2170600</v>
       </c>
       <c r="JJ15" s="11">
-        <v>2181200</v>
+        <v>2180600</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>2181500</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>2184500</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -8716,10 +8764,16 @@
         <v>18800</v>
       </c>
       <c r="JJ16" s="11">
-        <v>19100</v>
+        <v>18800</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>18800</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>18800</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>20</v>
       </c>
@@ -9526,10 +9580,16 @@
         <v>884500</v>
       </c>
       <c r="JJ17" s="11">
-        <v>892000</v>
+        <v>891900</v>
+      </c>
+      <c r="JK17" s="11">
+        <v>889800</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>891000</v>
       </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>34</v>
       </c>
@@ -10336,10 +10396,16 @@
         <v>1267300</v>
       </c>
       <c r="JJ18" s="11">
-        <v>1270100</v>
+        <v>1269900</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>1272900</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>1274700</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>35</v>
       </c>
@@ -11146,10 +11212,16 @@
         <v>820200</v>
       </c>
       <c r="JJ19" s="11">
-        <v>821300</v>
+        <v>821500</v>
+      </c>
+      <c r="JK19" s="11">
+        <v>822700</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>824300</v>
       </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>83</v>
       </c>
@@ -11956,10 +12028,16 @@
         <v>447100</v>
       </c>
       <c r="JJ20" s="11">
-        <v>448800</v>
+        <v>448400</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>450200</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>450400</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>115</v>
       </c>
@@ -12766,10 +12844,16 @@
         <v>14507200</v>
       </c>
       <c r="JJ21" s="11">
-        <v>14593400</v>
+        <v>14608800</v>
+      </c>
+      <c r="JK21" s="11">
+        <v>14660100</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>14707800</v>
       </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>117</v>
       </c>
@@ -13576,10 +13660,16 @@
         <v>3001200</v>
       </c>
       <c r="JJ22" s="11">
-        <v>3016100</v>
+        <v>3020500</v>
+      </c>
+      <c r="JK22" s="11">
+        <v>3022500</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>3024300</v>
       </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>118</v>
       </c>
@@ -14386,10 +14476,16 @@
         <v>644800</v>
       </c>
       <c r="JJ23" s="11">
-        <v>647400</v>
+        <v>647500</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>649600</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>651500</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>138</v>
       </c>
@@ -15196,10 +15292,16 @@
         <v>1581600</v>
       </c>
       <c r="JJ24" s="11">
-        <v>1590200</v>
+        <v>1589000</v>
+      </c>
+      <c r="JK24" s="11">
+        <v>1581700</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>1574400</v>
       </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>177</v>
       </c>
@@ -16006,10 +16108,16 @@
         <v>774800</v>
       </c>
       <c r="JJ25" s="11">
-        <v>778500</v>
+        <v>784000</v>
+      </c>
+      <c r="JK25" s="11">
+        <v>791200</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>798400</v>
       </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>205</v>
       </c>
@@ -16816,10 +16924,16 @@
         <v>556900</v>
       </c>
       <c r="JJ26" s="11">
-        <v>559600</v>
+        <v>560500</v>
+      </c>
+      <c r="JK26" s="11">
+        <v>560500</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>563600</v>
       </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>226</v>
       </c>
@@ -17626,10 +17740,16 @@
         <v>809900</v>
       </c>
       <c r="JJ27" s="11">
-        <v>814300</v>
+        <v>812400</v>
+      </c>
+      <c r="JK27" s="11">
+        <v>813400</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>814500</v>
       </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>227</v>
       </c>
@@ -18436,10 +18556,16 @@
         <v>528600</v>
       </c>
       <c r="JJ28" s="11">
-        <v>531900</v>
+        <v>530800</v>
+      </c>
+      <c r="JK28" s="11">
+        <v>530900</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>531200</v>
       </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>240</v>
       </c>
@@ -19246,10 +19372,16 @@
         <v>281300</v>
       </c>
       <c r="JJ29" s="11">
-        <v>282400</v>
+        <v>281600</v>
+      </c>
+      <c r="JK29" s="11">
+        <v>282500</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>283300</v>
       </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>251</v>
       </c>
@@ -20056,10 +20188,16 @@
         <v>2703900</v>
       </c>
       <c r="JJ30" s="11">
-        <v>2743400</v>
+        <v>2746800</v>
+      </c>
+      <c r="JK30" s="11">
+        <v>2763900</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>2775900</v>
       </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>252</v>
       </c>
@@ -20866,10 +21004,16 @@
         <v>1371200</v>
       </c>
       <c r="JJ31" s="11">
-        <v>1381100</v>
+        <v>1384400</v>
+      </c>
+      <c r="JK31" s="11">
+        <v>1401500</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>1410400</v>
       </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>262</v>
       </c>
@@ -21676,10 +21820,16 @@
         <v>242600</v>
       </c>
       <c r="JJ32" s="11">
+        <v>242500</v>
+      </c>
+      <c r="JK32" s="11">
+        <v>242500</v>
+      </c>
+      <c r="JL32" s="11">
         <v>242400</v>
       </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>263</v>
       </c>
@@ -22488,8 +22638,14 @@
       <c r="JJ33" s="11">
         <v>1119900</v>
       </c>
+      <c r="JK33" s="11">
+        <v>1119900</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>1123100</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>274</v>
       </c>
@@ -23296,10 +23452,16 @@
         <v>2796100</v>
       </c>
       <c r="JJ34" s="11">
-        <v>2801500</v>
+        <v>2803900</v>
+      </c>
+      <c r="JK34" s="11">
+        <v>2816000</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>2823600</v>
       </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>275</v>
       </c>
@@ -24106,10 +24268,16 @@
         <v>350900</v>
       </c>
       <c r="JJ35" s="11">
-        <v>353300</v>
+        <v>352800</v>
+      </c>
+      <c r="JK35" s="11">
+        <v>353500</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>356400</v>
       </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>281</v>
       </c>
@@ -24916,10 +25084,16 @@
         <v>2445200</v>
       </c>
       <c r="JJ36" s="11">
-        <v>2448200</v>
+        <v>2451100</v>
+      </c>
+      <c r="JK36" s="11">
+        <v>2462500</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>2467200</v>
       </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>304</v>
       </c>
@@ -25726,10 +25900,16 @@
         <v>1689400</v>
       </c>
       <c r="JJ37" s="11">
-        <v>1710900</v>
+        <v>1716100</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>1727900</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>1742900</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>305</v>
       </c>
@@ -26536,10 +26716,16 @@
         <v>259300</v>
       </c>
       <c r="JJ38" s="11">
-        <v>269200</v>
+        <v>274100</v>
+      </c>
+      <c r="JK38" s="11">
+        <v>271300</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>274300</v>
       </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>316</v>
       </c>
@@ -27346,10 +27532,16 @@
         <v>1430100</v>
       </c>
       <c r="JJ39" s="11">
-        <v>1441700</v>
+        <v>1442000</v>
+      </c>
+      <c r="JK39" s="11">
+        <v>1456600</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>1468600</v>
       </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>324</v>
       </c>
@@ -28156,10 +28348,16 @@
         <v>498300</v>
       </c>
       <c r="JJ40" s="11">
-        <v>500100</v>
+        <v>502200</v>
+      </c>
+      <c r="JK40" s="11">
+        <v>505800</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>508800</v>
       </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>342</v>
       </c>
@@ -28966,10 +29164,16 @@
         <v>2451500</v>
       </c>
       <c r="JJ41" s="11">
-        <v>2447500</v>
+        <v>2446400</v>
+      </c>
+      <c r="JK41" s="11">
+        <v>2450100</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>2454200</v>
       </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>343</v>
       </c>
@@ -29776,10 +29980,16 @@
         <v>251200</v>
       </c>
       <c r="JJ42" s="11">
-        <v>250600</v>
+        <v>251100</v>
+      </c>
+      <c r="JK42" s="11">
+        <v>251700</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>251300</v>
       </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>347</v>
       </c>
@@ -30586,10 +30796,16 @@
         <v>510900</v>
       </c>
       <c r="JJ43" s="11">
-        <v>511600</v>
+        <v>515200</v>
+      </c>
+      <c r="JK43" s="11">
+        <v>517200</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>520800</v>
       </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>350</v>
       </c>
@@ -31396,10 +31612,16 @@
         <v>1689400</v>
       </c>
       <c r="JJ44" s="11">
-        <v>1685300</v>
+        <v>1680100</v>
+      </c>
+      <c r="JK44" s="11">
+        <v>1681200</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>1682100</v>
       </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>106</v>
       </c>
@@ -31412,7 +31634,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>15</v>
       </c>
@@ -31425,7 +31647,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>107</v>
       </c>
